--- a/datasets/ipccc_industrial.xlsx
+++ b/datasets/ipccc_industrial.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798058BE-EC21-488C-ABC8-7A554565E050}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98DF19A-69A8-4194-BB92-F0A4710A25B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="57">
   <si>
     <t>2.  Industrial Processes</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>N2O</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -5583,21 +5586,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1CD304-11FA-4503-93E1-C195AB4FEA4C}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="24"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
